--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-27077.89003869246</v>
+        <v>-27077.89003869245</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>10670116.69762333</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27752399.88113482</v>
+        <v>24945749.32184906</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1251588.943881055</v>
+        <v>2812351.242911771</v>
       </c>
     </row>
     <row r="11">
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8289,34 +8289,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,34 +8526,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,34 +8763,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,28 +8845,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,34 +9000,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,28 +9082,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9319,28 +9319,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9401,28 +9401,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,34 +9474,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,19 +9556,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,10 +9711,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,28 +9793,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,34 +9948,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,13 +10030,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,10 +10185,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,28 +10267,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,34 +10422,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,28 +10504,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,34 +10659,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,28 +10741,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,28 +10978,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,16 +11133,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,28 +11215,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22568,31 +22568,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22881,34 +22881,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -23118,34 +23118,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23279,31 +23279,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
         <v>193.8433399116564</v>
@@ -23355,34 +23355,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
         <v>165.0641745378389</v>
@@ -23437,28 +23437,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -23516,31 +23516,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
         <v>193.8433399116564</v>
@@ -23592,34 +23592,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
         <v>165.0641745378389</v>
@@ -23674,28 +23674,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
         <v>163.8605191622716</v>
@@ -23911,28 +23911,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
         <v>163.8605191622716</v>
@@ -23993,28 +23993,28 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24066,34 +24066,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
         <v>165.0641745378389</v>
@@ -24148,19 +24148,19 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>96.22962838366004</v>
@@ -24169,7 +24169,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
         <v>163.8605191622716</v>
@@ -24227,10 +24227,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>130.6648563030561</v>
@@ -24239,7 +24239,7 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>117.8828208804077</v>
@@ -24251,7 +24251,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
         <v>193.8433399116564</v>
@@ -24303,10 +24303,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>80.29914934735042</v>
@@ -24327,10 +24327,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
         <v>165.0641745378389</v>
@@ -24385,28 +24385,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24464,19 +24464,19 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>117.8828208804077</v>
@@ -24485,10 +24485,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
         <v>193.8433399116564</v>
@@ -24540,34 +24540,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
         <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
         <v>165.0641745378389</v>
@@ -24622,13 +24622,13 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>92.09541281912071</v>
@@ -24640,10 +24640,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
         <v>163.8605191622716</v>
@@ -24725,7 +24725,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
         <v>193.8433399116564</v>
@@ -24777,10 +24777,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>80.29914934735042</v>
@@ -24804,7 +24804,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
         <v>165.0641745378389</v>
@@ -24859,28 +24859,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
         <v>163.8605191622716</v>
@@ -24938,13 +24938,13 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>113.4004983079896</v>
@@ -24953,16 +24953,16 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
         <v>193.8433399116564</v>
@@ -25014,34 +25014,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
         <v>165.0641745378389</v>
@@ -25096,28 +25096,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
         <v>163.8605191622716</v>
@@ -25175,13 +25175,13 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>113.4004983079896</v>
@@ -25190,16 +25190,16 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
         <v>193.8433399116564</v>
@@ -25251,34 +25251,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
         <v>165.0641745378389</v>
@@ -25333,28 +25333,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
         <v>163.8605191622716</v>
@@ -25436,7 +25436,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
         <v>193.8433399116564</v>
@@ -25488,13 +25488,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>61.18167021676314</v>
@@ -25512,10 +25512,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
         <v>165.0641745378389</v>
@@ -25570,28 +25570,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
         <v>163.8605191622716</v>
@@ -25649,10 +25649,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>130.6648563030561</v>
@@ -25667,13 +25667,13 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
         <v>193.8433399116564</v>
@@ -25725,16 +25725,16 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>51.84373129681028</v>
@@ -25746,13 +25746,13 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
         <v>165.0641745378389</v>
@@ -25807,28 +25807,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
         <v>163.8605191622716</v>
@@ -25886,7 +25886,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>135.370731907559</v>
@@ -25910,7 +25910,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25962,10 +25962,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>80.29914934735042</v>
@@ -25989,7 +25989,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
         <v>165.0641745378389</v>
@@ -26044,7 +26044,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
         <v>94.30397654773019</v>
@@ -26065,7 +26065,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
         <v>163.8605191622716</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-9.849827620200811e-12</v>
+        <v>254093.6190439003</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-9.849827620200811e-12</v>
+        <v>85193.65327094837</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-9.849827620200811e-12</v>
+        <v>85193.65327094837</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>144241.6582168519</v>
+        <v>367224.6982294511</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>144241.6582168519</v>
+        <v>367224.6982294511</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>144241.6582168519</v>
+        <v>171778.5905360539</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>144241.6582168519</v>
+        <v>284557.4780903365</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>144241.6582168519</v>
+        <v>250592.4116816303</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>144241.6582168519</v>
+        <v>309378.8205293737</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>144241.6582168519</v>
+        <v>191975.1856097186</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>144241.6582168519</v>
+        <v>331983.2635208668</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144241.6582168519</v>
+        <v>336024.9079129806</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>144241.6582168519</v>
+        <v>204944.8626471485</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>144241.6582168519</v>
+        <v>269448.5657923542</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>144241.6582168519</v>
+        <v>185940.8817371014</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>47188.81496529577</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>15821.67846460471</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>15821.67846460471</v>
       </c>
       <c r="E2" t="n">
-        <v>32897.2202950715</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="F2" t="n">
-        <v>32897.2202950715</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="G2" t="n">
-        <v>32897.2202950715</v>
+        <v>38011.22201149473</v>
       </c>
       <c r="H2" t="n">
-        <v>32897.2202950715</v>
+        <v>58955.87255729012</v>
       </c>
       <c r="I2" t="n">
-        <v>32897.2202950715</v>
+        <v>52648.07450995895</v>
       </c>
       <c r="J2" t="n">
-        <v>32897.2202950715</v>
+        <v>63565.55043882556</v>
       </c>
       <c r="K2" t="n">
-        <v>32897.2202950715</v>
+        <v>41762.01823946103</v>
       </c>
       <c r="L2" t="n">
-        <v>32897.2202950715</v>
+        <v>67763.51842296003</v>
       </c>
       <c r="M2" t="n">
-        <v>32897.2202950715</v>
+        <v>68514.10952435256</v>
       </c>
       <c r="N2" t="n">
-        <v>32897.2202950715</v>
+        <v>44170.67254641229</v>
       </c>
       <c r="O2" t="n">
-        <v>32897.2202950715</v>
+        <v>56149.93170195052</v>
       </c>
       <c r="P2" t="n">
-        <v>32897.2202950715</v>
+        <v>40641.36180597499</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>47188.81496529577</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>15821.67846460471</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>15821.67846460471</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>5114.001716423243</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>26058.65226221863</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>19750.85421488746</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30668.33014375408</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>8864.797944389542</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34866.29812788851</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>35616.88922928106</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>11273.45225134081</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>23252.71140687902</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>7744.141510903504</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-33627.59999999999</v>
       </c>
       <c r="C6" t="n">
         <v>-33627.6</v>
@@ -26528,13 +26528,13 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-103814.3918099369</v>
+        <v>-103814.3918099368</v>
       </c>
       <c r="F6" t="n">
         <v>29285.60819006318</v>
       </c>
       <c r="G6" t="n">
-        <v>29285.60819006318</v>
+        <v>29285.60819006317</v>
       </c>
       <c r="H6" t="n">
         <v>29285.60819006318</v>
@@ -26543,25 +26543,25 @@
         <v>29285.60819006318</v>
       </c>
       <c r="J6" t="n">
-        <v>29285.60819006318</v>
+        <v>29285.60819006317</v>
       </c>
       <c r="K6" t="n">
-        <v>29285.60819006318</v>
+        <v>29285.60819006317</v>
       </c>
       <c r="L6" t="n">
-        <v>29285.60819006318</v>
+        <v>29285.60819006319</v>
       </c>
       <c r="M6" t="n">
         <v>29285.60819006318</v>
       </c>
       <c r="N6" t="n">
-        <v>29285.60819006318</v>
+        <v>29285.60819006317</v>
       </c>
       <c r="O6" t="n">
         <v>29285.60819006318</v>
       </c>
       <c r="P6" t="n">
-        <v>29285.60819006318</v>
+        <v>29285.60819006317</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-27077.89003869245</v>
+        <v>-13351.53190127437</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10670116.69762333</v>
+        <v>10922087.44374209</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24945749.32184906</v>
+        <v>25197720.06796782</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2812351.242911771</v>
+        <v>2688784.803334876</v>
       </c>
     </row>
     <row r="11">
@@ -8693,16 +8695,16 @@
         <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>135.4597561231036</v>
@@ -8769,19 +8771,19 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>65.92768427608706</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9486,7 +9488,7 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
         <v>38.66169381481656</v>
@@ -9571,10 +9573,10 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9638,7 +9640,7 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9656,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9717,7 +9719,7 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
         <v>94.49434172313325</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>135.370731907559</v>
@@ -9887,13 +9889,13 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
         <v>80.29914934735042</v>
@@ -9966,7 +9968,7 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
         <v>65.92768427608706</v>
@@ -10036,19 +10038,19 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10133,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,7 +10354,7 @@
         <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10428,22 +10430,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>94.49434172313325</v>
@@ -10519,10 +10521,10 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10586,16 +10588,16 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
         <v>117.8828208804077</v>
@@ -10671,13 +10673,13 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>65.92768427608706</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10990,7 +10992,7 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>96.22962838366004</v>
@@ -11060,7 +11062,7 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11078,10 +11080,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>94.49434172313325</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11452,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -23285,16 +23287,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -23361,19 +23363,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -23990,28 +23992,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>108.0327934026353</v>
@@ -24078,7 +24080,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -24163,10 +24165,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>61.14583096471014</v>
@@ -24230,7 +24232,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
         <v>130.6648563030561</v>
@@ -24248,7 +24250,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>108.0327934026353</v>
@@ -24309,7 +24311,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>61.18167021676314</v>
@@ -24321,10 +24323,10 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -24464,7 +24466,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24479,13 +24481,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>108.0327934026353</v>
@@ -24543,7 +24545,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24558,7 +24560,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -24628,19 +24630,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>61.14583096471014</v>
@@ -24725,7 +24727,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S29" t="n">
         <v>193.8433399116564</v>
@@ -24783,7 +24785,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>61.18167021676314</v>
@@ -24798,10 +24800,10 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>78.03303713061706</v>
@@ -24944,7 +24946,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
         <v>113.4004983079896</v>
@@ -24953,13 +24955,13 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>108.0327934026353</v>
@@ -25020,22 +25022,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -25111,10 +25113,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
         <v>61.14583096471014</v>
@@ -25178,16 +25180,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -25263,13 +25265,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -25412,7 +25414,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>135.370731907559</v>
@@ -25512,7 +25514,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>78.03303713061706</v>
@@ -25582,7 +25584,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -25652,7 +25654,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
         <v>130.6648563030561</v>
@@ -25670,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S41" t="n">
         <v>193.8433399116564</v>
@@ -25728,13 +25730,13 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
         <v>51.84373129681028</v>
@@ -25746,7 +25748,7 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -25886,7 +25888,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
         <v>135.370731907559</v>
@@ -26044,7 +26046,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K46" t="n">
         <v>94.30397654773019</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>367224.6982294511</v>
+        <v>298170.9753490015</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>284557.4780903365</v>
+        <v>314762.8398895449</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>250592.4116816303</v>
+        <v>267823.4479274536</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>309378.8205293737</v>
+        <v>320864.0063843761</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>191975.1856097186</v>
+        <v>200682.3995321278</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>331983.2635208668</v>
+        <v>230922.2961018724</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>336024.9079129806</v>
+        <v>303364.0884735172</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>204944.8626471485</v>
+        <v>211836.1993650283</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>269448.5657923542</v>
+        <v>240082.6429025264</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>185940.8817371014</v>
+        <v>167182.6575423821</v>
       </c>
     </row>
   </sheetData>
@@ -26320,7 +26322,7 @@
         <v>15821.67846460471</v>
       </c>
       <c r="E2" t="n">
-        <v>74308.35629741133</v>
+        <v>61484.09347675643</v>
       </c>
       <c r="F2" t="n">
         <v>74308.35629741133</v>
@@ -26329,31 +26331,31 @@
         <v>38011.22201149473</v>
       </c>
       <c r="H2" t="n">
-        <v>58955.87255729012</v>
+        <v>64565.43974857162</v>
       </c>
       <c r="I2" t="n">
-        <v>52648.07450995895</v>
+        <v>55848.12409846896</v>
       </c>
       <c r="J2" t="n">
-        <v>63565.55043882556</v>
+        <v>65698.51352618316</v>
       </c>
       <c r="K2" t="n">
-        <v>41762.01823946103</v>
+        <v>43379.07225362272</v>
       </c>
       <c r="L2" t="n">
-        <v>67763.51842296003</v>
+        <v>48995.05304514673</v>
       </c>
       <c r="M2" t="n">
-        <v>68514.10952435256</v>
+        <v>62448.52877130933</v>
       </c>
       <c r="N2" t="n">
-        <v>44170.67254641229</v>
+        <v>45450.49222258999</v>
       </c>
       <c r="O2" t="n">
-        <v>56149.93170195052</v>
+        <v>50696.26030812534</v>
       </c>
       <c r="P2" t="n">
-        <v>40641.36180597499</v>
+        <v>37157.69159838425</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>15821.67846460471</v>
       </c>
       <c r="E4" t="n">
-        <v>41411.13600233983</v>
+        <v>28586.87318168494</v>
       </c>
       <c r="F4" t="n">
         <v>41411.13600233983</v>
       </c>
       <c r="G4" t="n">
-        <v>5114.001716423243</v>
+        <v>5114.001716423241</v>
       </c>
       <c r="H4" t="n">
-        <v>26058.65226221863</v>
+        <v>31668.21945350014</v>
       </c>
       <c r="I4" t="n">
-        <v>19750.85421488746</v>
+        <v>22950.90380339748</v>
       </c>
       <c r="J4" t="n">
-        <v>30668.33014375408</v>
+        <v>32801.29323111167</v>
       </c>
       <c r="K4" t="n">
-        <v>8864.797944389542</v>
+        <v>10481.85195855123</v>
       </c>
       <c r="L4" t="n">
-        <v>34866.29812788851</v>
+        <v>16097.83275007525</v>
       </c>
       <c r="M4" t="n">
-        <v>35616.88922928106</v>
+        <v>29551.30847623785</v>
       </c>
       <c r="N4" t="n">
-        <v>11273.45225134081</v>
+        <v>12553.2719275185</v>
       </c>
       <c r="O4" t="n">
-        <v>23252.71140687902</v>
+        <v>17799.04001305386</v>
       </c>
       <c r="P4" t="n">
-        <v>7744.141510903504</v>
+        <v>4260.471303312761</v>
       </c>
     </row>
     <row r="5">
@@ -26528,7 +26530,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-103814.3918099368</v>
+        <v>-103814.3918099369</v>
       </c>
       <c r="F6" t="n">
         <v>29285.60819006318</v>
@@ -26537,31 +26539,31 @@
         <v>29285.60819006317</v>
       </c>
       <c r="H6" t="n">
-        <v>29285.60819006318</v>
+        <v>29285.60819006316</v>
       </c>
       <c r="I6" t="n">
-        <v>29285.60819006318</v>
+        <v>29285.60819006316</v>
       </c>
       <c r="J6" t="n">
         <v>29285.60819006317</v>
       </c>
       <c r="K6" t="n">
-        <v>29285.60819006317</v>
+        <v>29285.60819006316</v>
       </c>
       <c r="L6" t="n">
-        <v>29285.60819006319</v>
+        <v>29285.60819006316</v>
       </c>
       <c r="M6" t="n">
-        <v>29285.60819006318</v>
+        <v>29285.60819006315</v>
       </c>
       <c r="N6" t="n">
-        <v>29285.60819006317</v>
+        <v>29285.60819006316</v>
       </c>
       <c r="O6" t="n">
-        <v>29285.60819006318</v>
+        <v>29285.60819006316</v>
       </c>
       <c r="P6" t="n">
-        <v>29285.60819006317</v>
+        <v>29285.60819006316</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13351.53190127437</v>
+        <v>-138461.4306987509</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10922087.44374209</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25197720.06796782</v>
+        <v>22317222.39794713</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2688784.803334876</v>
+        <v>4272387.009462389</v>
       </c>
     </row>
     <row r="11">
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8695,16 +8695,16 @@
         <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
         <v>135.4597561231036</v>
@@ -8771,19 +8771,19 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
         <v>65.92768427608706</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,16 +9403,16 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
         <v>117.8828208804077</v>
@@ -9640,22 +9640,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
         <v>150.3839754851235</v>
@@ -9722,13 +9722,13 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
         <v>57.81213424001893</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
         <v>135.370731907559</v>
@@ -9895,7 +9895,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10038,7 +10038,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
         <v>92.09541281912071</v>
@@ -10050,7 +10050,7 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,16 +10196,16 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
         <v>65.92768427608706</v>
@@ -10354,22 +10354,22 @@
         <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10430,22 +10430,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
         <v>94.49434172313325</v>
@@ -10524,7 +10524,7 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10588,13 +10588,13 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
         <v>110.5750244233121</v>
@@ -10673,13 +10673,13 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
         <v>65.92768427608706</v>
@@ -10825,25 +10825,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10907,22 +10907,22 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10992,7 +10992,7 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
         <v>96.22962838366004</v>
@@ -11062,19 +11062,19 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
         <v>135.4597561231036</v>
@@ -11083,7 +11083,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,25 +11138,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
         <v>94.49434172313325</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,25 +11378,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22646,34 +22646,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22728,28 +22728,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22807,31 +22807,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22965,28 +22965,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23044,31 +23044,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23202,28 +23202,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23287,16 +23287,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -23363,19 +23363,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -23755,31 +23755,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
         <v>193.8433399116564</v>
@@ -23831,34 +23831,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -23995,16 +23995,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -24232,22 +24232,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -24314,13 +24314,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -24466,7 +24466,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>108.0327934026353</v>
@@ -24630,7 +24630,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -24642,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>61.14583096471014</v>
@@ -24703,31 +24703,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
         <v>193.8433399116564</v>
@@ -24788,16 +24788,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -24946,22 +24946,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>108.0327934026353</v>
@@ -25022,22 +25022,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -25116,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>61.14583096471014</v>
@@ -25180,13 +25180,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -25265,13 +25265,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -25417,25 +25417,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>108.0327934026353</v>
@@ -25499,22 +25499,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>78.03303713061706</v>
@@ -25584,7 +25584,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -25654,19 +25654,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
         <v>193.8433399116564</v>
@@ -25730,25 +25730,25 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -25888,28 +25888,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>108.0327934026353</v>
@@ -25970,25 +25970,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>78.03303713061706</v>
@@ -26046,25 +26046,25 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>61.14583096471014</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>254093.6190439003</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>85193.65327094837</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>85193.65327094837</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>298170.9753490015</v>
+        <v>367224.6982294511</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>171778.5905360539</v>
+        <v>367224.6982294511</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>314762.8398895449</v>
+        <v>367224.6982294511</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>267823.4479274536</v>
+        <v>367224.6982294511</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>320864.0063843761</v>
+        <v>367224.6982294511</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>200682.3995321278</v>
+        <v>367224.6982294511</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>230922.2961018724</v>
+        <v>367224.6982294511</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>303364.0884735172</v>
+        <v>367224.6982294511</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>211836.1993650283</v>
+        <v>367224.6982294511</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>240082.6429025264</v>
+        <v>367224.6982294511</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>167182.6575423821</v>
+        <v>367224.6982294511</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47188.81496529577</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="C2" t="n">
-        <v>15821.67846460471</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="D2" t="n">
-        <v>15821.67846460471</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="E2" t="n">
-        <v>61484.09347675643</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="F2" t="n">
         <v>74308.35629741133</v>
       </c>
       <c r="G2" t="n">
-        <v>38011.22201149473</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="H2" t="n">
-        <v>64565.43974857162</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="I2" t="n">
-        <v>55848.12409846896</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="J2" t="n">
-        <v>65698.51352618316</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="K2" t="n">
-        <v>43379.07225362272</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="L2" t="n">
-        <v>48995.05304514673</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="M2" t="n">
-        <v>62448.52877130933</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="N2" t="n">
-        <v>45450.49222258999</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="O2" t="n">
-        <v>50696.26030812534</v>
+        <v>74308.35629741133</v>
       </c>
       <c r="P2" t="n">
-        <v>37157.69159838425</v>
+        <v>74308.35629741133</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47188.81496529577</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="C4" t="n">
-        <v>15821.67846460471</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="D4" t="n">
-        <v>15821.67846460471</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="E4" t="n">
-        <v>28586.87318168494</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="F4" t="n">
         <v>41411.13600233983</v>
       </c>
       <c r="G4" t="n">
-        <v>5114.001716423241</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="H4" t="n">
-        <v>31668.21945350014</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="I4" t="n">
-        <v>22950.90380339748</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="J4" t="n">
-        <v>32801.29323111167</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="K4" t="n">
-        <v>10481.85195855123</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="L4" t="n">
-        <v>16097.83275007525</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="M4" t="n">
-        <v>29551.30847623785</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="N4" t="n">
-        <v>12553.2719275185</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="O4" t="n">
-        <v>17799.04001305386</v>
+        <v>41411.13600233983</v>
       </c>
       <c r="P4" t="n">
-        <v>4260.471303312761</v>
+        <v>41411.13600233983</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-48778.27397003474</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003474</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="E6" t="n">
-        <v>-103814.3918099369</v>
+        <v>-118624.4086490508</v>
       </c>
       <c r="F6" t="n">
-        <v>29285.60819006318</v>
+        <v>14475.59135094927</v>
       </c>
       <c r="G6" t="n">
-        <v>29285.60819006317</v>
+        <v>14475.59135094927</v>
       </c>
       <c r="H6" t="n">
-        <v>29285.60819006316</v>
+        <v>14475.59135094927</v>
       </c>
       <c r="I6" t="n">
-        <v>29285.60819006316</v>
+        <v>14475.59135094927</v>
       </c>
       <c r="J6" t="n">
-        <v>29285.60819006317</v>
+        <v>14475.59135094927</v>
       </c>
       <c r="K6" t="n">
-        <v>29285.60819006316</v>
+        <v>14475.59135094927</v>
       </c>
       <c r="L6" t="n">
-        <v>29285.60819006316</v>
+        <v>14475.59135094927</v>
       </c>
       <c r="M6" t="n">
-        <v>29285.60819006315</v>
+        <v>14475.59135094927</v>
       </c>
       <c r="N6" t="n">
-        <v>29285.60819006316</v>
+        <v>14475.59135094927</v>
       </c>
       <c r="O6" t="n">
-        <v>29285.60819006316</v>
+        <v>14475.59135094927</v>
       </c>
       <c r="P6" t="n">
-        <v>29285.60819006316</v>
+        <v>14475.59135094927</v>
       </c>
     </row>
   </sheetData>
